--- a/zeeman/data.xlsx
+++ b/zeeman/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER.DESKTOP-AET6VDV\Desktop\sem 5\Modern physics lab\zeeman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C2240-1C96-40E2-B9EB-BB8B3E20E5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921CECF1-D1A9-40E6-AC33-02852DE0952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1392" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,42 +51,84 @@
     <t>c</t>
   </si>
   <si>
-    <t>1st order(Mu m)</t>
-  </si>
-  <si>
-    <t>3rd orderMu m)</t>
-  </si>
-  <si>
-    <t>2nd orderMu m)</t>
-  </si>
-  <si>
-    <t>del</t>
-  </si>
-  <si>
-    <t>DELTA</t>
-  </si>
-  <si>
     <t>t=3*10^-3 m</t>
   </si>
   <si>
-    <t>Mu = 1</t>
-  </si>
-  <si>
-    <t>delta k</t>
-  </si>
-  <si>
-    <t>Bohr magneton</t>
-  </si>
-  <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>1st order(μm)</t>
+  </si>
+  <si>
+    <t>3rd order(μm)</t>
+  </si>
+  <si>
+    <t>2nd order(μm)</t>
+  </si>
+  <si>
+    <t>Δ (m^2)</t>
+  </si>
+  <si>
+    <t>δ (m^2)</t>
+  </si>
+  <si>
+    <t>Δ k</t>
+  </si>
+  <si>
+    <r>
+      <t>Bohr magneton(μ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)(J/T)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mu = 1.456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,16 +152,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,462 +459,538 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>40</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>0.67500000000000004</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>55.88</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>124.96</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>164.99</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <f>-(D2^2 - D4^2 +E2^2 -E4^2 + F2^2 - F4^2)/(6*10^12)</f>
         <v>3.3929234166666667E-9</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <f>(E2^2 - D2^2 + E3^2 - D3^2 + E4^2 - D4^2 + F2^2 - E2^2 + F3^2 - E3^2 + F4^2 - E4^2)/(6*10^12)</f>
         <v>1.2029057166666671E-8</v>
       </c>
-      <c r="I2" s="1">
-        <f>(1/(2*3*10^-3))*(G2/H2)</f>
-        <v>47.010104638800321</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="I2" s="4">
+        <f>(1/(2*3*10^-3))*(G2/H2)/1.456</f>
+        <v>32.287159779395829</v>
+      </c>
+      <c r="J2" s="4">
         <f>6.62607015*10^-34*2.99792458*10^8*(I2/(2*B2))</f>
-        <v>6.9172613039912976E-24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
+        <v>4.7508662802138049E-24</v>
+      </c>
+      <c r="M2">
+        <f>J2/1.456</f>
+        <v>3.2629576100369541E-24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>81.010000000000005</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>137.56</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>174.81</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="M3">
+        <f t="shared" ref="M3:M16" si="0">J3/1.456</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>99.86</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>149.31</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>184.53</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>41</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>0.58499999999999996</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>64.760000000000005</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>129.68</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>167.06</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" ref="G5" si="0">-(D5^2 - D7^2 +E5^2 -E7^2 + F5^2 - F7^2)/(6*10^12)</f>
+      <c r="G5" s="4">
+        <f t="shared" ref="G5" si="1">-(D5^2 - D7^2 +E5^2 -E7^2 + F5^2 - F7^2)/(6*10^12)</f>
         <v>2.5946642999999999E-9</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5" si="1">(E5^2 - D5^2 + E6^2 - D6^2 + E7^2 - D7^2 + F5^2 - E5^2 + F6^2 - E6^2 + F7^2 - E7^2)/(6*10^12)</f>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5" si="2">(E5^2 - D5^2 + E6^2 - D6^2 + E7^2 - D7^2 + F5^2 - E5^2 + F6^2 - E6^2 + F7^2 - E7^2)/(6*10^12)</f>
         <v>1.1645077499999999E-8</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5" si="2">(1/(2*3*10^-3))*(G5/H5)</f>
-        <v>37.135351825696304</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="I5" s="4">
+        <f>(1/(2*3*10^-3))*(G5/H5)/1.456</f>
+        <v>25.505049330835373</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" ref="J5" si="3">6.62607015*10^-34*2.99792458*10^8*(I5/(2*B5))</f>
-        <v>6.304903058796781E-24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
+        <v>4.3302905623604269E-24</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>2.9741006609618317E-24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>83.91</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>138.07</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>174.78</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>99.37</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>148.63</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>180.34</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>42</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>0.505</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>69.34</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>131.79</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>171.36</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <f t="shared" ref="G8" si="4">-(D8^2 - D10^2 +E8^2 -E10^2 + F8^2 - F10^2)/(6*10^12)</f>
         <v>2.4642353833333334E-9</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <f t="shared" ref="H8" si="5">(E8^2 - D8^2 + E9^2 - D9^2 + E10^2 - D10^2 + F8^2 - E8^2 + F9^2 - E9^2 + F10^2 - E10^2)/(6*10^12)</f>
         <v>1.2068657583333333E-8</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" ref="I8" si="6">(1/(2*3*10^-3))*(G8/H8)</f>
-        <v>34.030785477699027</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" ref="J8" si="7">6.62607015*10^-34*2.99792458*10^8*(I8/(2*B8))</f>
-        <v>6.6931002799702145E-24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
+      <c r="I8" s="4">
+        <f>(1/(2*3*10^-3))*(G8/H8)/1.456</f>
+        <v>23.372792223694386</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" ref="J8" si="6">6.62607015*10^-34*2.99792458*10^8*(I8/(2*B8))</f>
+        <v>4.5969095329465756E-24</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>3.1572180858149557E-24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>86.41</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>140.55000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>177.34</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>100.54</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>149.12</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>184.34</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>43</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>0.44800000000000001</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>72.650000000000006</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>133.09</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>171.87</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" ref="G11" si="8">-(D11^2 - D13^2 +E11^2 -E13^2 + F11^2 - F13^2)/(6*10^12)</f>
+      <c r="G11" s="4">
+        <f t="shared" ref="G11" si="7">-(D11^2 - D13^2 +E11^2 -E13^2 + F11^2 - F13^2)/(6*10^12)</f>
         <v>2.2016539000000001E-9</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" ref="H11" si="9">(E11^2 - D11^2 + E12^2 - D12^2 + E13^2 - D13^2 + F11^2 - E11^2 + F12^2 - E12^2 + F13^2 - E13^2)/(6*10^12)</f>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11" si="8">(E11^2 - D11^2 + E12^2 - D12^2 + E13^2 - D13^2 + F11^2 - E11^2 + F12^2 - E12^2 + F13^2 - E13^2)/(6*10^12)</f>
         <v>1.2036164416666666E-8</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" ref="I11" si="10">(1/(2*3*10^-3))*(G11/H11)</f>
-        <v>30.486648733258903</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" ref="J11" si="11">6.62607015*10^-34*2.99792458*10^8*(I11/(2*B11))</f>
-        <v>6.7589371734974089E-24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+      <c r="I11" s="4">
+        <f t="shared" ref="I11" si="9">(1/(2*3*10^-3))*(G11/H11)/1.456</f>
+        <v>20.938632371743754</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11" si="10">6.62607015*10^-34*2.99792458*10^8*(I11/(2*B11))</f>
+        <v>4.6421271795998695E-24</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>3.1882741618130972E-24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>87.25</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>141.02000000000001</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>177.89</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>99.2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>148.78</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>183.75</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>44</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>0.40200000000000002</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>73.569999999999993</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>133.03</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>172.92</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" ref="G14" si="12">-(D14^2 - D16^2 +E14^2 -E16^2 + F14^2 - F16^2)/(6*10^12)</f>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14" si="11">-(D14^2 - D16^2 +E14^2 -E16^2 + F14^2 - F16^2)/(6*10^12)</f>
         <v>1.7904540333333353E-9</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" ref="H14" si="13">(E14^2 - D14^2 + E15^2 - D15^2 + E16^2 - D16^2 + F14^2 - E14^2 + F15^2 - E15^2 + F16^2 - E16^2)/(6*10^12)</f>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14" si="12">(E14^2 - D14^2 + E15^2 - D15^2 + E16^2 - D16^2 + F14^2 - E14^2 + F15^2 - E15^2 + F16^2 - E16^2)/(6*10^12)</f>
         <v>1.2052558366666665E-8</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" ref="I14" si="14">(1/(2*3*10^-3))*(G14/H14)</f>
-        <v>24.758976183915866</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" ref="J14" si="15">6.62607015*10^-34*2.99792458*10^8*(I14/(2*B14))</f>
-        <v>6.1172096601727199E-24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
+      <c r="I14" s="4">
+        <f>(1/(2*3*10^-3))*(G14/H14)/1.456</f>
+        <v>17.004791335107051</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" ref="J14" si="13">6.62607015*10^-34*2.99792458*10^8*(I14/(2*B14))</f>
+        <v>4.2013802611076372E-24</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>2.8855633661453554E-24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>85.87</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>140.83000000000001</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>178.26</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>96.78</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>146.96</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>181.08</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="L17">
+        <f>AVERAGE(J2:J16)</f>
+        <v>4.5043147632456622E-24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="J19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="J11:J13"/>
@@ -866,22 +1001,13 @@
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>